--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_semester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.09472088398319407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1246424881883873</v>
+        <v>0.1424201652695178</v>
       </c>
       <c r="H2" t="n">
-        <v>31.58923665714743</v>
+        <v>50.35772395746098</v>
       </c>
       <c r="I2" t="n">
-        <v>22.64625570306497</v>
+        <v>1.165065652347801</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06609390632718209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1263243236859247</v>
+        <v>0.1519146242324391</v>
       </c>
       <c r="H3" t="n">
-        <v>91.1285483121338</v>
+        <v>129.8466419588245</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.009375267559595661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03832197049564025</v>
+        <v>0.01626309980923994</v>
       </c>
       <c r="H4" t="n">
-        <v>308.7560195166633</v>
+        <v>73.46811390566157</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.01338981234153172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02753976281840617</v>
+        <v>0.02379283006678161</v>
       </c>
       <c r="H5" t="n">
-        <v>-305.676988713165</v>
+        <v>277.693528930069</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.2211956880075068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2243303026666395</v>
+        <v>-0.2272541810922561</v>
       </c>
       <c r="H6" t="n">
-        <v>1.417122859567823</v>
+        <v>-2.73897431696032</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.249875694316674</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2339339176775717</v>
+        <v>-0.2587639806376527</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.379882878443895</v>
+        <v>-3.557083191018312</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3702558697496981</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3829888486986668</v>
+        <v>-0.3743793175321739</v>
       </c>
       <c r="H8" t="n">
-        <v>3.438967478780684</v>
+        <v>-1.11367519582157</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3986343696712738</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4462816903775426</v>
+        <v>-0.462289691914912</v>
       </c>
       <c r="H9" t="n">
-        <v>11.95263738687667</v>
+        <v>-15.96834771074314</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.01620488826727209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01037654099196293</v>
+        <v>0.004862212323446856</v>
       </c>
       <c r="H10" t="n">
-        <v>-164.0334004210305</v>
+        <v>-69.99539741803258</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.01606586733002158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004768654298529378</v>
+        <v>0.0179918748571623</v>
       </c>
       <c r="H11" t="n">
-        <v>-129.6818976565206</v>
+        <v>211.9881951442589</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2271888010689149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2272035450419239</v>
+        <v>0.2376503796500293</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006489744626328672</v>
+        <v>4.604795012735252</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2633405849776401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3166252461155665</v>
+        <v>0.2560882449064057</v>
       </c>
       <c r="H13" t="n">
-        <v>20.23412423969922</v>
+        <v>-2.753977352883232</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.009567272390893788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.004423785107041965</v>
+        <v>-0.01639610553023982</v>
       </c>
       <c r="H14" t="n">
-        <v>-53.76127148577309</v>
+        <v>-71.37701175776884</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.02018671694130859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006540903902411247</v>
+        <v>0.01496293281258154</v>
       </c>
       <c r="H15" t="n">
-        <v>-67.59798078395586</v>
+        <v>-25.87733381269883</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1179991053673963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1335703189756821</v>
+        <v>0.1421679474362366</v>
       </c>
       <c r="H16" t="n">
-        <v>13.19604378338635</v>
+        <v>20.48222483856073</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.2188329224258184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2246548148930674</v>
+        <v>0.2057615078853936</v>
       </c>
       <c r="H17" t="n">
-        <v>2.660428057493296</v>
+        <v>-5.973239490440858</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.06046660347950181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05990258184423539</v>
+        <v>0.0475624122425268</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.9327820694569312</v>
+        <v>-21.34102214183326</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09008930410788432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07601689157988592</v>
+        <v>0.06977307085352141</v>
       </c>
       <c r="H19" t="n">
-        <v>-15.62051418573099</v>
+        <v>-22.55121565822473</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.1455309749378724</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1505904627918633</v>
+        <v>-0.1549612290636011</v>
       </c>
       <c r="H20" t="n">
-        <v>3.476571125941277</v>
+        <v>-6.479894833216439</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.1998298937858519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1845531759377336</v>
+        <v>-0.1967736510113334</v>
       </c>
       <c r="H21" t="n">
-        <v>-7.644861115969776</v>
+        <v>1.529422208367743</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.05438824257925616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04784673114388276</v>
+        <v>0.04881641967134771</v>
       </c>
       <c r="H22" t="n">
-        <v>-12.02743667593398</v>
+        <v>-10.24453566373104</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.04084014519188762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03653352611023896</v>
+        <v>0.02561024320794179</v>
       </c>
       <c r="H23" t="n">
-        <v>-10.54506310252813</v>
+        <v>-37.29149813838335</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1157343230489467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09941170617372849</v>
+        <v>0.1302089078626761</v>
       </c>
       <c r="H24" t="n">
-        <v>-14.10352300442021</v>
+        <v>12.5067347632109</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.15207602857372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1604631651604398</v>
+        <v>0.1720563124983373</v>
       </c>
       <c r="H25" t="n">
-        <v>5.515094433606986</v>
+        <v>13.13835198880915</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0528767867841862</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0364560311799968</v>
+        <v>0.02882637362060067</v>
       </c>
       <c r="H26" t="n">
-        <v>-31.05475313999286</v>
+        <v>-45.48387794770135</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.05046680748257124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04449914978058426</v>
+        <v>0.01290957487798713</v>
       </c>
       <c r="H27" t="n">
-        <v>-11.8249162165606</v>
+        <v>-74.4196720142334</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1529110724585075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1717870804785676</v>
+        <v>0.1778414196775265</v>
       </c>
       <c r="H28" t="n">
-        <v>12.34443504748954</v>
+        <v>16.30382078824532</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1707030879345922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1843458506754508</v>
+        <v>0.1939093667549562</v>
       </c>
       <c r="H29" t="n">
-        <v>7.992100732287899</v>
+        <v>13.59452784430934</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.01956608687570464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02016058730857384</v>
+        <v>-0.00303138070973302</v>
       </c>
       <c r="H30" t="n">
-        <v>3.038422739538154</v>
+        <v>-115.4930351121823</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.009704970602210089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01819567590632183</v>
+        <v>-0.006079593786075354</v>
       </c>
       <c r="H31" t="n">
-        <v>87.48821250605513</v>
+        <v>-162.6441236688637</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.03729327229807801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01664852622516319</v>
+        <v>0.02174531191890518</v>
       </c>
       <c r="H32" t="n">
-        <v>-55.35782944415632</v>
+        <v>-41.6910595962214</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.02610363887137964</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02117300449670625</v>
+        <v>0.02454515545609308</v>
       </c>
       <c r="H33" t="n">
-        <v>-18.88868597580623</v>
+        <v>-5.970368433940076</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.1279680086290383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1145007896286935</v>
+        <v>0.1036443620529278</v>
       </c>
       <c r="H34" t="n">
-        <v>-10.52389510833477</v>
+        <v>-19.00759950607765</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.1286605930521383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1469893869675986</v>
+        <v>0.1191880133549298</v>
       </c>
       <c r="H35" t="n">
-        <v>14.24584908296883</v>
+        <v>-7.36245611223776</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01503188746380182</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.06184369466585973</v>
+        <v>-0.04245097173126619</v>
       </c>
       <c r="H36" t="n">
-        <v>-511.4166954401774</v>
+        <v>-382.4061305241412</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01531448840280134</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03130788137128545</v>
+        <v>0.007847571375231035</v>
       </c>
       <c r="H37" t="n">
-        <v>104.4330868118231</v>
+        <v>-48.75720841059535</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.002042413588276078</v>
       </c>
       <c r="G38" t="n">
-        <v>0.003983721662608795</v>
+        <v>-0.04048237637119766</v>
       </c>
       <c r="H38" t="n">
-        <v>-295.049704206644</v>
+        <v>-1882.085146885811</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.03340921239761406</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.04798025478320968</v>
+        <v>0.00551830619617054</v>
       </c>
       <c r="H39" t="n">
-        <v>43.61384582246608</v>
+        <v>116.5173190271454</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.147548992070951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.130642640356052</v>
+        <v>0.1550405278804526</v>
       </c>
       <c r="H40" t="n">
-        <v>-11.45812755316509</v>
+        <v>5.077320898199825</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1613992061073214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1002988525299101</v>
+        <v>0.1345867270597043</v>
       </c>
       <c r="H41" t="n">
-        <v>-37.85666302273073</v>
+        <v>-16.61252226345421</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.06456490419750059</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05647891851192782</v>
+        <v>0.06084472567608996</v>
       </c>
       <c r="H42" t="n">
-        <v>-12.52380962393775</v>
+        <v>-5.76192060942398</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.03476052319325828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04305123216493085</v>
+        <v>0.05019213739977633</v>
       </c>
       <c r="H43" t="n">
-        <v>23.85093263866792</v>
+        <v>44.39407922810257</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.01411278266930669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.009310604579768464</v>
+        <v>0.0175896988863587</v>
       </c>
       <c r="H44" t="n">
-        <v>-34.02715256136046</v>
+        <v>24.63664536274487</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.04105803848404692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0240809082495647</v>
+        <v>0.01517207453426739</v>
       </c>
       <c r="H45" t="n">
-        <v>-41.34910205483556</v>
+        <v>-63.04724946818273</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.06581986401260984</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.02945347939132039</v>
+        <v>-0.04730867865013868</v>
       </c>
       <c r="H46" t="n">
-        <v>-55.25138218809194</v>
+        <v>28.1240103427208</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.041309702810476</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.04475376779923837</v>
+        <v>-0.04220948004513633</v>
       </c>
       <c r="H47" t="n">
-        <v>8.33718171385383</v>
+        <v>-2.178125654373262</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.1259754094228709</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1271879760931305</v>
+        <v>-0.109997798354968</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9625423531582362</v>
+        <v>12.68311898417387</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1974814065859856</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1367908263134414</v>
+        <v>-0.1240440186921968</v>
       </c>
       <c r="H49" t="n">
-        <v>-30.73230099063471</v>
+        <v>37.18698846810843</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1088736477750334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08676886211717325</v>
+        <v>0.1053878828021463</v>
       </c>
       <c r="H50" t="n">
-        <v>-20.30315517997107</v>
+        <v>-3.201660864794182</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1002708283321516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1327226856231689</v>
+        <v>0.08093681869259406</v>
       </c>
       <c r="H51" t="n">
-        <v>32.36420585209397</v>
+        <v>-19.28178909175136</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.05961905326882879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05148277436282307</v>
+        <v>0.0502435763729707</v>
       </c>
       <c r="H52" t="n">
-        <v>-13.64711188773554</v>
+        <v>-15.7256386705489</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06754268044434918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07908346610499346</v>
+        <v>0.0503854953393062</v>
       </c>
       <c r="H53" t="n">
-        <v>17.08665629601886</v>
+        <v>-25.40199025589368</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.06992058032982243</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.07636110680979354</v>
+        <v>-0.09246111151462176</v>
       </c>
       <c r="H54" t="n">
-        <v>9.211202838406795</v>
+        <v>-32.23733424189755</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.07723620257289701</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.07202848193053463</v>
+        <v>-0.08397365933765766</v>
       </c>
       <c r="H55" t="n">
-        <v>-6.742590221790406</v>
+        <v>-8.723184905940586</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04582607359533745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09842781284468176</v>
+        <v>0.09657761222459652</v>
       </c>
       <c r="H56" t="n">
-        <v>114.7856124743278</v>
+        <v>110.7481716138621</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.005170277811757367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1231083591878522</v>
+        <v>0.1155617708395022</v>
       </c>
       <c r="H57" t="n">
-        <v>2281.078225775414</v>
+        <v>2135.117242185928</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_semester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.09472088398319407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1424201652695178</v>
+        <v>0.1089330235413494</v>
       </c>
       <c r="H2" t="n">
-        <v>50.35772395746098</v>
+        <v>15.00423028218035</v>
       </c>
       <c r="I2" t="n">
-        <v>1.165065652347801</v>
+        <v>70.27997336718379</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06609390632718209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1519146242324391</v>
+        <v>0.08633469868054416</v>
       </c>
       <c r="H3" t="n">
-        <v>129.8466419588245</v>
+        <v>30.62429424758897</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.009375267559595661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01626309980923994</v>
+        <v>0.05564443211082127</v>
       </c>
       <c r="H4" t="n">
-        <v>73.46811390566157</v>
+        <v>493.5236702004174</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.01338981234153172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02379283006678161</v>
+        <v>0.06473273844841052</v>
       </c>
       <c r="H5" t="n">
-        <v>277.693528930069</v>
+        <v>583.4476899099353</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.2211956880075068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2272541810922561</v>
+        <v>-0.2480781787696523</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.73897431696032</v>
+        <v>-12.15326166811768</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.249875694316674</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2587639806376527</v>
+        <v>-0.1938512765520452</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.557083191018312</v>
+        <v>22.4209152946375</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3702558697496981</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3743793175321739</v>
+        <v>-0.348482098000785</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.11367519582157</v>
+        <v>5.880736411723247</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3986343696712738</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.462289691914912</v>
+        <v>-0.4465935199590182</v>
       </c>
       <c r="H9" t="n">
-        <v>-15.96834771074314</v>
+        <v>-12.03086184648177</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.01620488826727209</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004862212323446856</v>
+        <v>-0.03661058812501135</v>
       </c>
       <c r="H10" t="n">
-        <v>-69.99539741803258</v>
+        <v>-325.9231135764834</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.01606586733002158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0179918748571623</v>
+        <v>0.1109858677711741</v>
       </c>
       <c r="H11" t="n">
-        <v>211.9881951442589</v>
+        <v>790.8177784076412</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2271888010689149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2376503796500293</v>
+        <v>0.2442780973087719</v>
       </c>
       <c r="H12" t="n">
-        <v>4.604795012735252</v>
+        <v>7.522068059452092</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2633405849776401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2560882449064057</v>
+        <v>0.3048948402577875</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.753977352883232</v>
+        <v>15.77966240322421</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.009567272390893788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01639610553023982</v>
+        <v>0.003377446125900369</v>
       </c>
       <c r="H14" t="n">
-        <v>-71.37701175776884</v>
+        <v>135.3020797141205</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.02018671694130859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01496293281258154</v>
+        <v>0.01807478892439136</v>
       </c>
       <c r="H15" t="n">
-        <v>-25.87733381269883</v>
+        <v>-10.46196874438527</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1179991053673963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1421679474362366</v>
+        <v>0.1471397429223727</v>
       </c>
       <c r="H16" t="n">
-        <v>20.48222483856073</v>
+        <v>24.69564278834616</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.2188329224258184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2057615078853936</v>
+        <v>0.2019013891914626</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.973239490440858</v>
+        <v>-7.737196508946391</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.06046660347950181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0475624122425268</v>
+        <v>0.05066496190056213</v>
       </c>
       <c r="H18" t="n">
-        <v>-21.34102214183326</v>
+        <v>-16.21000852522241</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09008930410788432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06977307085352141</v>
+        <v>0.06335529464375943</v>
       </c>
       <c r="H19" t="n">
-        <v>-22.55121565822473</v>
+        <v>-29.67500940190437</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.1455309749378724</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1549612290636011</v>
+        <v>-0.1493376391708737</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.479894833216439</v>
+        <v>-2.615707229767667</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.1998298937858519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1967736510113334</v>
+        <v>-0.1655791104804148</v>
       </c>
       <c r="H21" t="n">
-        <v>1.529422208367743</v>
+        <v>17.13996972952506</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.05438824257925616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04881641967134771</v>
+        <v>0.06220922636670745</v>
       </c>
       <c r="H22" t="n">
-        <v>-10.24453566373104</v>
+        <v>14.37991635058684</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.04084014519188762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02561024320794179</v>
+        <v>0.04744535075041098</v>
       </c>
       <c r="H23" t="n">
-        <v>-37.29149813838335</v>
+        <v>16.17331556361706</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1157343230489467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1302089078626761</v>
+        <v>0.1240932540643074</v>
       </c>
       <c r="H24" t="n">
-        <v>12.5067347632109</v>
+        <v>7.222516877577907</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.15207602857372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1720563124983373</v>
+        <v>0.1450114575138241</v>
       </c>
       <c r="H25" t="n">
-        <v>13.13835198880915</v>
+        <v>-4.64542053481577</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0528767867841862</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02882637362060067</v>
+        <v>0.03522127456327665</v>
       </c>
       <c r="H26" t="n">
-        <v>-45.48387794770135</v>
+        <v>-33.38991132908583</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.05046680748257124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01290957487798713</v>
+        <v>0.0270347553693973</v>
       </c>
       <c r="H27" t="n">
-        <v>-74.4196720142334</v>
+        <v>-46.43062100028067</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1529110724585075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1778414196775265</v>
+        <v>0.1431970712570723</v>
       </c>
       <c r="H28" t="n">
-        <v>16.30382078824532</v>
+        <v>-6.352712753401884</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1707030879345922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1939093667549562</v>
+        <v>0.1563239313775818</v>
       </c>
       <c r="H29" t="n">
-        <v>13.59452784430934</v>
+        <v>-8.42348942306189</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.01956608687570464</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.00303138070973302</v>
+        <v>0.04406200190503957</v>
       </c>
       <c r="H30" t="n">
-        <v>-115.4930351121823</v>
+        <v>125.1957797435301</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.009704970602210089</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.006079593786075354</v>
+        <v>0.01911163817547751</v>
       </c>
       <c r="H31" t="n">
-        <v>-162.6441236688637</v>
+        <v>96.92628611492408</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.03729327229807801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02174531191890518</v>
+        <v>0.007069033143765936</v>
       </c>
       <c r="H32" t="n">
-        <v>-41.6910595962214</v>
+        <v>-81.0447496072093</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.02610363887137964</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02454515545609308</v>
+        <v>0.02113011879896545</v>
       </c>
       <c r="H33" t="n">
-        <v>-5.970368433940076</v>
+        <v>-19.05297608858366</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.1279680086290383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1036443620529278</v>
+        <v>0.1135768874065771</v>
       </c>
       <c r="H34" t="n">
-        <v>-19.00759950607765</v>
+        <v>-11.24587416545573</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.1286605930521383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1191880133549298</v>
+        <v>0.1247405251258358</v>
       </c>
       <c r="H35" t="n">
-        <v>-7.36245611223776</v>
+        <v>-3.046828740105326</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01503188746380182</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.04245097173126619</v>
+        <v>-0.05648232002048782</v>
       </c>
       <c r="H36" t="n">
-        <v>-382.4061305241412</v>
+        <v>-475.7500191276877</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01531448840280134</v>
       </c>
       <c r="G37" t="n">
-        <v>0.007847571375231035</v>
+        <v>0.0176297342143285</v>
       </c>
       <c r="H37" t="n">
-        <v>-48.75720841059535</v>
+        <v>15.11800949944664</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.002042413588276078</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.04048237637119766</v>
+        <v>-0.01247581372136387</v>
       </c>
       <c r="H38" t="n">
-        <v>-1882.085146885811</v>
+        <v>-510.8367958859019</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.03340921239761406</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00551830619617054</v>
+        <v>-0.03503784162529756</v>
       </c>
       <c r="H39" t="n">
-        <v>116.5173190271454</v>
+        <v>-4.874790846011702</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.147548992070951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1550405278804526</v>
+        <v>0.1272225312727454</v>
       </c>
       <c r="H40" t="n">
-        <v>5.077320898199825</v>
+        <v>-13.77607567012815</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1613992061073214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1345867270597043</v>
+        <v>0.1558683796813407</v>
       </c>
       <c r="H41" t="n">
-        <v>-16.61252226345421</v>
+        <v>-3.426799027935116</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.06456490419750059</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06084472567608996</v>
+        <v>0.03960050263682657</v>
       </c>
       <c r="H42" t="n">
-        <v>-5.76192060942398</v>
+        <v>-38.66559065016072</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.03476052319325828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05019213739977633</v>
+        <v>0.07230136851666458</v>
       </c>
       <c r="H43" t="n">
-        <v>44.39407922810257</v>
+        <v>107.9985048403623</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.01411278266930669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0175896988863587</v>
+        <v>0.03065116904809738</v>
       </c>
       <c r="H44" t="n">
-        <v>24.63664536274487</v>
+        <v>117.1872816745017</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.04105803848404692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01517207453426739</v>
+        <v>0.02291328482669539</v>
       </c>
       <c r="H45" t="n">
-        <v>-63.04724946818273</v>
+        <v>-44.19293840450187</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.06581986401260984</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.04730867865013868</v>
+        <v>-0.03469376567376054</v>
       </c>
       <c r="H46" t="n">
-        <v>28.1240103427208</v>
+        <v>47.28982474483102</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.041309702810476</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.04220948004513633</v>
+        <v>-0.02288662598077324</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.178125654373262</v>
+        <v>44.5974567142873</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.1259754094228709</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.109997798354968</v>
+        <v>-0.1208150834097541</v>
       </c>
       <c r="H48" t="n">
-        <v>12.68311898417387</v>
+        <v>4.096296282550468</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1974814065859856</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1240440186921968</v>
+        <v>-0.115229025422366</v>
       </c>
       <c r="H49" t="n">
-        <v>37.18698846810843</v>
+        <v>41.65069643040344</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1088736477750334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1053878828021463</v>
+        <v>0.08714110998930936</v>
       </c>
       <c r="H50" t="n">
-        <v>-3.201660864794182</v>
+        <v>-19.96124703255114</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1002708283321516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08093681869259406</v>
+        <v>0.1134302532499808</v>
       </c>
       <c r="H51" t="n">
-        <v>-19.28178909175136</v>
+        <v>13.12388172783215</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.05961905326882879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0502435763729707</v>
+        <v>0.06152233664544582</v>
       </c>
       <c r="H52" t="n">
-        <v>-15.7256386705489</v>
+        <v>3.192407917037723</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06754268044434918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0503854953393062</v>
+        <v>0.0826345111258542</v>
       </c>
       <c r="H53" t="n">
-        <v>-25.40199025589368</v>
+        <v>22.34413941261884</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.06992058032982243</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.09246111151462176</v>
+        <v>-0.06681443655767105</v>
       </c>
       <c r="H54" t="n">
-        <v>-32.23733424189755</v>
+        <v>4.442388431988669</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.07723620257289701</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08397365933765766</v>
+        <v>-0.07234877222006822</v>
       </c>
       <c r="H55" t="n">
-        <v>-8.723184905940586</v>
+        <v>6.327900893646269</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04582607359533745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09657761222459652</v>
+        <v>0.09498575403203936</v>
       </c>
       <c r="H56" t="n">
-        <v>110.7481716138621</v>
+        <v>107.2744762529767</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.005170277811757367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1155617708395022</v>
+        <v>0.1468825598540809</v>
       </c>
       <c r="H57" t="n">
-        <v>2135.117242185928</v>
+        <v>2740.902659428968</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>